--- a/Printer parts.xlsx
+++ b/Printer parts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Documents\Finances\trunk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Finances\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE639F0C-39AE-4D8A-A0C7-289E94DB8166}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45D01EE-D04E-444E-ACF4-1B8E02ACB0E6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4890" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>Bl Touch</t>
   </si>
@@ -59,9 +60,6 @@
     <t>Trilho linear 400mm</t>
   </si>
   <si>
-    <t>Tmc 2209</t>
-  </si>
-  <si>
     <t>Castanha anti folga</t>
   </si>
   <si>
@@ -89,18 +87,12 @@
     <t>Fuso trapezoidal</t>
   </si>
   <si>
-    <t>8mm de passo</t>
-  </si>
-  <si>
     <t>Fonte</t>
   </si>
   <si>
     <t>300W</t>
   </si>
   <si>
-    <t>Taxas</t>
-  </si>
-  <si>
     <t>Taxa média</t>
   </si>
   <si>
@@ -120,6 +112,39 @@
   </si>
   <si>
     <t>2Mt</t>
+  </si>
+  <si>
+    <t>Conector PTFE</t>
+  </si>
+  <si>
+    <t>x10</t>
+  </si>
+  <si>
+    <t>Endstops</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Eletronico</t>
+  </si>
+  <si>
+    <t>Estrutural</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>TMC2209</t>
+  </si>
+  <si>
+    <t>Frete</t>
+  </si>
+  <si>
+    <t>8mm de passo 600mm</t>
   </si>
 </sst>
 </file>
@@ -173,7 +198,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -190,6 +215,9 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -472,26 +500,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="6" width="16.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="8" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="8" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -500,16 +536,23 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -527,376 +570,465 @@
       <c r="G2" s="5">
         <v>53.94</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="5">
+        <v>6.87</v>
+      </c>
+      <c r="I2" s="8">
         <f>G2/(E2*D2)</f>
         <v>1.1476595744680851</v>
       </c>
-      <c r="I2" s="6">
-        <f>G2*$H$17</f>
-        <v>65.535914801678047</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="6">
+        <f>H2+F2</f>
+        <v>53.87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="B3" s="4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E3" s="5">
-        <v>3.17</v>
+        <v>159.86000000000001</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" ref="F3:F15" si="0">E3*D3</f>
-        <v>31.7</v>
+        <f t="shared" ref="F3:F8" si="0">E3*D3</f>
+        <v>159.86000000000001</v>
       </c>
       <c r="G3" s="5">
-        <v>41.59</v>
-      </c>
-      <c r="H3" s="8">
+        <v>189.48</v>
+      </c>
+      <c r="H3" s="5">
+        <v>8.44</v>
+      </c>
+      <c r="I3" s="8">
         <f>G3/(E3*D3)</f>
-        <v>1.3119873817034702</v>
-      </c>
-      <c r="I3" s="6">
-        <f t="shared" ref="I3:I15" si="1">G3*$H$17</f>
-        <v>50.530936162435864</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4">
+        <v>1.1852871262354558</v>
+      </c>
+      <c r="J3" s="6">
+        <f t="shared" ref="J3:J14" si="1">H3+F3</f>
+        <v>168.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>25.55</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" si="0"/>
+        <v>102.2</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" ref="G4:G8" si="2">D4*E4</f>
+        <v>102.2</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="J4" s="6">
+        <f t="shared" si="1"/>
+        <v>102.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="E4" s="5">
-        <v>159.86000000000001</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" si="0"/>
-        <v>159.86000000000001</v>
-      </c>
-      <c r="G4" s="5">
-        <v>189.48</v>
-      </c>
-      <c r="H4" s="8">
-        <f>G4/(E4*D4)</f>
-        <v>1.1852871262354558</v>
-      </c>
-      <c r="I4" s="6">
-        <f t="shared" si="1"/>
-        <v>230.21403664482679</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
       <c r="E5" s="1">
-        <v>115.23</v>
+        <v>186.6</v>
       </c>
       <c r="F5" s="9">
         <f t="shared" si="0"/>
-        <v>460.92</v>
+        <v>186.6</v>
       </c>
       <c r="G5" s="6">
-        <f>D5*E5</f>
-        <v>460.92</v>
-      </c>
-      <c r="I5" s="6">
+        <f t="shared" si="2"/>
+        <v>186.6</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
         <f t="shared" si="1"/>
-        <v>560.00767242101313</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+        <v>186.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>98.88</v>
+        <v>89.52</v>
       </c>
       <c r="F6" s="9">
         <f t="shared" si="0"/>
-        <v>296.64</v>
+        <v>89.52</v>
       </c>
       <c r="G6" s="6">
-        <f t="shared" ref="G6:G15" si="2">D6*E6</f>
-        <v>296.64</v>
-      </c>
-      <c r="I6" s="6">
+        <f t="shared" si="2"/>
+        <v>89.52</v>
+      </c>
+      <c r="H6" s="6">
+        <v>10.74</v>
+      </c>
+      <c r="J6" s="6">
         <f t="shared" si="1"/>
-        <v>360.41108206840522</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+        <v>100.25999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>25.55</v>
+        <v>60</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" si="0"/>
-        <v>102.2</v>
+        <v>60</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" si="2"/>
-        <v>102.2</v>
-      </c>
-      <c r="I7" s="6">
+        <v>60</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="J7" s="6">
         <f t="shared" si="1"/>
-        <v>124.17075440733217</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>8.4</v>
+        <v>67</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" si="0"/>
-        <v>16.8</v>
+        <v>67</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="H8" s="6">
+        <v>13.66</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="1"/>
+        <v>80.66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3.17</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" ref="F9:F14" si="3">E9*D9</f>
+        <v>31.7</v>
+      </c>
+      <c r="G9" s="5">
+        <v>41.59</v>
+      </c>
+      <c r="H9" s="5">
+        <v>9.83</v>
+      </c>
+      <c r="I9" s="8">
+        <f>G9/(E9*D9)</f>
+        <v>1.3119873817034702</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" si="1"/>
+        <v>41.53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>115.23</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="3"/>
+        <v>460.92</v>
+      </c>
+      <c r="G10" s="6">
+        <f>D10*E10</f>
+        <v>460.92</v>
+      </c>
+      <c r="H10" s="6">
+        <v>10.57</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="1"/>
+        <v>471.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>98.88</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="3"/>
+        <v>296.64</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" ref="G11:G14" si="4">D11*E11</f>
+        <v>296.64</v>
+      </c>
+      <c r="H11" s="6">
+        <v>10.57</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="1"/>
+        <v>307.20999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="3"/>
         <v>16.8</v>
       </c>
-      <c r="I8" s="6">
+      <c r="G12" s="6">
+        <f t="shared" si="4"/>
+        <v>16.8</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
         <f t="shared" si="1"/>
-        <v>20.41163086147926</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>188.69</v>
-      </c>
-      <c r="F9" s="9">
-        <f t="shared" si="0"/>
-        <v>188.69</v>
-      </c>
-      <c r="G9" s="6">
-        <f t="shared" si="2"/>
-        <v>188.69</v>
-      </c>
-      <c r="I9" s="6">
-        <f t="shared" si="1"/>
-        <v>229.25420400312629</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>90.52</v>
-      </c>
-      <c r="F10" s="9">
-        <f t="shared" si="0"/>
-        <v>90.52</v>
-      </c>
-      <c r="G10" s="6">
-        <f t="shared" si="2"/>
-        <v>90.52</v>
-      </c>
-      <c r="I10" s="6">
-        <f t="shared" si="1"/>
-        <v>109.97981104649421</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>31.74</v>
-      </c>
-      <c r="F11" s="9">
-        <f t="shared" si="0"/>
-        <v>31.74</v>
-      </c>
-      <c r="G11" s="6">
-        <f t="shared" si="2"/>
-        <v>31.74</v>
-      </c>
-      <c r="I11" s="6">
-        <f t="shared" si="1"/>
-        <v>38.563402591866172</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="F12" s="9">
-        <f t="shared" si="0"/>
-        <v>0.01</v>
-      </c>
-      <c r="G12" s="6">
-        <f t="shared" si="2"/>
-        <v>0.01</v>
-      </c>
-      <c r="I12" s="6">
-        <f t="shared" si="1"/>
-        <v>1.2149780274690037E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>17</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>60</v>
+        <v>31.39</v>
       </c>
       <c r="F13" s="9">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <f t="shared" si="3"/>
+        <v>31.39</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="I13" s="6">
+        <f t="shared" si="4"/>
+        <v>31.39</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
         <f t="shared" si="1"/>
-        <v>72.898681648140212</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31.39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1">
+        <v>39</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="3"/>
+        <v>156</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="4"/>
+        <v>156</v>
+      </c>
+      <c r="H14" s="6">
+        <v>56.44</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="1"/>
+        <v>212.44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
         <v>20</v>
       </c>
-      <c r="C14" t="s">
+      <c r="H16"/>
+      <c r="I16" s="8">
+        <f>AVERAGE(I2:I14)</f>
+        <v>1.2149780274690036</v>
+      </c>
+      <c r="J16" s="6">
+        <f>SUM(J2:J15)</f>
+        <v>1832.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D14">
+      <c r="F18" s="1">
+        <f>SUM(F2:F15)</f>
+        <v>1705.63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>32.520000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22">
         <v>1</v>
       </c>
-      <c r="E14" s="1">
-        <v>60</v>
-      </c>
-      <c r="F14" s="9">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="G14" s="6">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="I14" s="6">
-        <f t="shared" si="1"/>
-        <v>72.898681648140212</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15" s="1">
-        <v>50</v>
-      </c>
-      <c r="F15" s="9">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="G15" s="6">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="I15" s="6">
-        <f t="shared" si="1"/>
-        <v>242.99560549380072</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="8">
-        <f>AVERAGE(H2:H15)</f>
-        <v>1.2149780274690036</v>
-      </c>
-      <c r="I17" s="6">
-        <f>SUM(I2:I16)</f>
-        <v>2177.884563579013</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="1">
-        <f>SUM(F2:F16)</f>
-        <v>1746.08</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="E22" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
         <v>29</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>21.35</v>
       </c>
     </row>
   </sheetData>

--- a/Printer parts.xlsx
+++ b/Printer parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Finances\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C3957B-274B-49B0-B63D-B071AE64F70C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326406B3-FA78-4DF2-BDDD-43F42CB6DFAA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4815" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista de peças" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
   <si>
     <t>Bl Touch</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Hotbed</t>
   </si>
   <si>
-    <t>310mm x 310mm</t>
-  </si>
-  <si>
     <t>Titan Extruder</t>
   </si>
   <si>
@@ -163,6 +160,24 @@
   </si>
   <si>
     <t>LV8729</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/item/32948965023.html?spm=a2g0s.9042311.0.0.2742b90aPvqanh</t>
+  </si>
+  <si>
+    <t>310mm x 310mm 110v 750W</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -209,7 +224,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,6 +240,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,7 +265,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -265,13 +286,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -280,6 +296,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hiperlink" xfId="3" builtinId="8"/>
@@ -563,519 +586,598 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" customWidth="1"/>
-    <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="40.140625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="40.140625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>47</v>
+      </c>
+      <c r="G2" s="5">
+        <v>6.94</v>
+      </c>
+      <c r="H2" s="9">
+        <f t="shared" ref="H2:H15" si="0">F2*E2+G2</f>
+        <v>53.94</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>180.9</v>
+      </c>
+      <c r="G3" s="5">
+        <v>8.58</v>
+      </c>
+      <c r="H3" s="9">
+        <f t="shared" si="0"/>
+        <v>189.48000000000002</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>109.26</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" si="0"/>
+        <v>109.26</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>14.82</v>
+      </c>
+      <c r="G5" s="8">
+        <v>5.82</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="0"/>
+        <v>35.46</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>187.64</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="0"/>
+        <v>187.64</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>104.89</v>
+      </c>
+      <c r="G7" s="8">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="0"/>
+        <v>113.34</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>60</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="J8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>60.73</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1.96</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="0"/>
+        <v>62.69</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18">
+        <v>0</v>
+      </c>
+      <c r="F10" s="20">
+        <v>21.35</v>
+      </c>
+      <c r="G10" s="22">
+        <v>0</v>
+      </c>
+      <c r="H10" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4">
+        <v>10</v>
+      </c>
+      <c r="F11" s="5">
+        <v>3.17</v>
+      </c>
+      <c r="G11" s="5">
+        <v>9.89</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="0"/>
+        <v>41.59</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1">
+        <v>115.23</v>
+      </c>
+      <c r="G12" s="6">
+        <v>10.57</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" si="0"/>
+        <v>471.49</v>
+      </c>
+      <c r="J12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>98.88</v>
+      </c>
+      <c r="G13" s="6">
+        <v>10.57</v>
+      </c>
+      <c r="H13" s="14">
+        <f t="shared" si="0"/>
+        <v>307.20999999999998</v>
+      </c>
+      <c r="J13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>31.39</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="14">
+        <f t="shared" si="0"/>
+        <v>31.39</v>
+      </c>
+      <c r="J14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="4">
+        <v>4</v>
+      </c>
+      <c r="F15" s="5">
+        <v>39.130000000000003</v>
+      </c>
+      <c r="G15" s="8">
+        <v>29.9</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" si="0"/>
+        <v>186.42000000000002</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="18">
+        <v>0</v>
+      </c>
+      <c r="F16" s="20">
+        <v>0</v>
+      </c>
+      <c r="G16" s="20">
+        <v>0</v>
+      </c>
+      <c r="H16" s="21">
+        <f t="shared" ref="H16:H20" si="1">F16*E16+G16</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="18">
+        <v>0</v>
+      </c>
+      <c r="F17" s="20">
+        <v>0</v>
+      </c>
+      <c r="G17" s="20">
+        <v>0</v>
+      </c>
+      <c r="H17" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="20">
+        <v>0</v>
+      </c>
+      <c r="G18" s="20">
+        <v>0</v>
+      </c>
+      <c r="H18" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G19"/>
+      <c r="H19" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H20" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="12"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5">
-        <v>47</v>
-      </c>
-      <c r="F2" s="5">
-        <v>6.94</v>
-      </c>
-      <c r="G2" s="9">
-        <f>E2*D2+F2</f>
-        <v>53.94</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5">
-        <v>180.9</v>
-      </c>
-      <c r="F3" s="5">
-        <v>8.58</v>
-      </c>
-      <c r="G3" s="9">
-        <f>E3*D3+F3</f>
-        <v>189.48000000000002</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
-        <v>109.26</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
-        <f>E4*D4+F4</f>
-        <v>109.26</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2</v>
-      </c>
-      <c r="E5" s="5">
-        <v>14.82</v>
-      </c>
-      <c r="F5" s="8">
-        <v>5.82</v>
-      </c>
-      <c r="G5" s="9">
-        <f>E5*D5+F5</f>
-        <v>35.46</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>187.64</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <f>E6*D6+F6</f>
-        <v>187.64</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>89.52</v>
-      </c>
-      <c r="F7" s="6">
-        <v>10.74</v>
-      </c>
-      <c r="G7" s="17">
-        <f>E7*D7+F7</f>
-        <v>100.25999999999999</v>
-      </c>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>60</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="17">
-        <f>E8*D8+F8</f>
-        <v>60</v>
-      </c>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>60.73</v>
-      </c>
-      <c r="F9" s="8">
-        <v>1.96</v>
-      </c>
-      <c r="G9" s="9">
-        <f>E9*D9+F9</f>
-        <v>62.69</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>21.35</v>
-      </c>
-      <c r="F10" s="14">
-        <v>0</v>
-      </c>
-      <c r="G10" s="17">
-        <f>E10*D10+F10</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4">
-        <v>10</v>
-      </c>
-      <c r="E11" s="5">
-        <v>3.17</v>
-      </c>
-      <c r="F11" s="5">
-        <v>9.89</v>
-      </c>
-      <c r="G11" s="9">
-        <f>E11*D11+F11</f>
-        <v>41.59</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1">
-        <v>115.23</v>
-      </c>
-      <c r="F12" s="6">
-        <v>10.57</v>
-      </c>
-      <c r="G12" s="17">
-        <f>E12*D12+F12</f>
-        <v>471.49</v>
-      </c>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>98.88</v>
-      </c>
-      <c r="F13" s="6">
-        <v>10.57</v>
-      </c>
-      <c r="G13" s="17">
-        <f>E13*D13+F13</f>
-        <v>307.20999999999998</v>
-      </c>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>31.39</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="17">
-        <f>E14*D14+F14</f>
-        <v>31.39</v>
-      </c>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="4">
-        <v>4</v>
-      </c>
-      <c r="E15" s="5">
-        <v>39.130000000000003</v>
-      </c>
-      <c r="F15" s="8">
-        <v>29.9</v>
-      </c>
-      <c r="G15" s="9">
-        <f>E15*D15+F15</f>
-        <v>186.42000000000002</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="17">
-        <f t="shared" ref="G16:G20" si="0">E16*D16+F16</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F19"/>
-      <c r="G19" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G20" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19">
-        <f>SUM(G2:G20)</f>
-        <v>1836.8300000000002</v>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16">
+        <f>SUM(H2:H20)</f>
+        <v>1849.91</v>
+      </c>
+      <c r="J21" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H9" r:id="rId1" xr:uid="{8AB8BA6B-7AC7-4A29-BD47-EA4BD722B55B}"/>
-    <hyperlink ref="H15" r:id="rId2" xr:uid="{8F42F0B5-4229-4E11-9475-30EBE8E324DC}"/>
-    <hyperlink ref="H6" r:id="rId3" xr:uid="{333921CD-58BB-46CB-9F4E-0AFB7D56A66C}"/>
-    <hyperlink ref="H11" r:id="rId4" xr:uid="{4071D855-F038-4099-B7C9-77763B0B2B94}"/>
-    <hyperlink ref="H2" r:id="rId5" xr:uid="{7A128532-9725-4295-971F-7ADC3FE5E1FD}"/>
-    <hyperlink ref="H3" r:id="rId6" xr:uid="{3D70AE2B-0D96-4CD7-922B-2BC477B082CB}"/>
-    <hyperlink ref="H4" r:id="rId7" xr:uid="{F3F66031-318A-4F44-AFC7-7F7913B9975D}"/>
+    <hyperlink ref="I9" r:id="rId1" xr:uid="{8AB8BA6B-7AC7-4A29-BD47-EA4BD722B55B}"/>
+    <hyperlink ref="I15" r:id="rId2" xr:uid="{8F42F0B5-4229-4E11-9475-30EBE8E324DC}"/>
+    <hyperlink ref="I6" r:id="rId3" xr:uid="{333921CD-58BB-46CB-9F4E-0AFB7D56A66C}"/>
+    <hyperlink ref="I11" r:id="rId4" xr:uid="{4071D855-F038-4099-B7C9-77763B0B2B94}"/>
+    <hyperlink ref="I2" r:id="rId5" xr:uid="{7A128532-9725-4295-971F-7ADC3FE5E1FD}"/>
+    <hyperlink ref="I3" r:id="rId6" xr:uid="{3D70AE2B-0D96-4CD7-922B-2BC477B082CB}"/>
+    <hyperlink ref="I4" r:id="rId7" xr:uid="{F3F66031-318A-4F44-AFC7-7F7913B9975D}"/>
+    <hyperlink ref="I7" r:id="rId8" xr:uid="{85CF416B-0913-4C51-9808-22CD5D8249B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId9"/>
 </worksheet>
 </file>